--- a/references/Release9_DataDic/SRS.xlsx
+++ b/references/Release9_DataDic/SRS.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/Research/Healthy Brain Network/Data Sharing/Data Dictionaries/Public Data Dictionaries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/Research/Healthy Brain Network/Data Sharing/Data Dictionaries/Release11_DataDic/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EE4E45-AFC0-B742-90BB-45837E838C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19420" tabRatio="500"/>
+    <workbookView xWindow="-34800" yWindow="1320" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="171">
   <si>
     <t>SRS_01</t>
   </si>
@@ -537,12 +538,15 @@
   </si>
   <si>
     <t>0= Not True, 1= Sometimes True, 2= Often True, 3= Almost Always True</t>
+  </si>
+  <si>
+    <t>3= Not True, 2= Sometimes True, 1= Often True, 0= Almost Always True</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -637,26 +641,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1008,129 +1007,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="106.5" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="3"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="C3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="C4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>169</v>
+      <c r="C5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="C6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="C7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1138,16 +1136,16 @@
       <c r="A8" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="C8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1155,33 +1153,33 @@
       <c r="A9" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>169</v>
+      <c r="C9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="C10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1189,16 +1187,16 @@
       <c r="A11" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="C11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1206,16 +1204,16 @@
       <c r="A12" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="C12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1223,50 +1221,50 @@
       <c r="A13" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>169</v>
+      <c r="C13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>169</v>
+      <c r="C14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="C15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1274,16 +1272,16 @@
       <c r="A16" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="C16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1291,33 +1289,33 @@
       <c r="A17" t="s">
         <v>146</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>169</v>
+      <c r="C17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="C18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1325,33 +1323,33 @@
       <c r="A19" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>169</v>
+      <c r="C19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="C20" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1359,16 +1357,16 @@
       <c r="A21" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="C21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1376,16 +1374,16 @@
       <c r="A22" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="C22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1393,50 +1391,50 @@
       <c r="A23" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>169</v>
+      <c r="C23" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>169</v>
+      <c r="C24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E25" s="5" t="s">
+      <c r="C25" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1444,16 +1442,16 @@
       <c r="A26" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="C26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E26" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1461,16 +1459,16 @@
       <c r="A27" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="C27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E27" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1478,33 +1476,33 @@
       <c r="A28" t="s">
         <v>147</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>169</v>
+      <c r="C28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E28" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E29" s="5" t="s">
+      <c r="C29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1512,16 +1510,16 @@
       <c r="A30" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E30" s="5" t="s">
+      <c r="C30" t="s">
+        <v>166</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1529,16 +1527,16 @@
       <c r="A31" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E31" s="5" t="s">
+      <c r="C31" t="s">
+        <v>166</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E31" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1546,16 +1544,16 @@
       <c r="A32" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E32" s="5" t="s">
+      <c r="C32" t="s">
+        <v>166</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1563,16 +1561,16 @@
       <c r="A33" t="s">
         <v>110</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E33" s="5" t="s">
+      <c r="C33" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E33" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1580,33 +1578,33 @@
       <c r="A34" t="s">
         <v>111</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>169</v>
+      <c r="C34" t="s">
+        <v>166</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E34" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>112</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E35" s="5" t="s">
+      <c r="C35" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E35" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1614,16 +1612,16 @@
       <c r="A36" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E36" s="5" t="s">
+      <c r="C36" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E36" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1631,16 +1629,16 @@
       <c r="A37" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E37" s="5" t="s">
+      <c r="C37" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E37" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1648,16 +1646,16 @@
       <c r="A38" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E38" s="5" t="s">
+      <c r="C38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E38" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1665,16 +1663,16 @@
       <c r="A39" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E39" s="5" t="s">
+      <c r="C39" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E39" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1682,33 +1680,33 @@
       <c r="A40" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>169</v>
+      <c r="C40" t="s">
+        <v>166</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E40" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>118</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E41" s="5" t="s">
+      <c r="C41" t="s">
+        <v>166</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E41" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1716,33 +1714,33 @@
       <c r="A42" t="s">
         <v>119</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>169</v>
+      <c r="C42" t="s">
+        <v>166</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E42" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>120</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E43" s="5" t="s">
+      <c r="C43" t="s">
+        <v>166</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E43" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1750,16 +1748,16 @@
       <c r="A44" t="s">
         <v>121</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E44" s="5" t="s">
+      <c r="C44" t="s">
+        <v>166</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E44" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1767,33 +1765,33 @@
       <c r="A45" t="s">
         <v>122</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>169</v>
+      <c r="C45" t="s">
+        <v>166</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E45" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>123</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E46" s="5" t="s">
+      <c r="C46" t="s">
+        <v>166</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E46" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1801,33 +1799,33 @@
       <c r="A47" t="s">
         <v>124</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>169</v>
+      <c r="C47" t="s">
+        <v>166</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E47" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>125</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E48" s="5" t="s">
+      <c r="C48" t="s">
+        <v>166</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E48" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1835,16 +1833,16 @@
       <c r="A49" t="s">
         <v>126</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E49" s="5" t="s">
+      <c r="C49" t="s">
+        <v>166</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E49" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1852,33 +1850,33 @@
       <c r="A50" t="s">
         <v>127</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>169</v>
+      <c r="C50" t="s">
+        <v>166</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E50" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>128</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E51" s="5" t="s">
+      <c r="C51" t="s">
+        <v>166</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E51" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1886,16 +1884,16 @@
       <c r="A52" t="s">
         <v>129</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E52" s="5" t="s">
+      <c r="C52" t="s">
+        <v>166</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E52" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1903,16 +1901,16 @@
       <c r="A53" t="s">
         <v>130</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E53" s="5" t="s">
+      <c r="C53" t="s">
+        <v>166</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E53" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1920,33 +1918,33 @@
       <c r="A54" t="s">
         <v>131</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>169</v>
+      <c r="C54" t="s">
+        <v>166</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E54" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>132</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E55" s="5" t="s">
+      <c r="C55" t="s">
+        <v>166</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E55" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1954,16 +1952,16 @@
       <c r="A56" t="s">
         <v>133</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E56" s="5" t="s">
+      <c r="C56" t="s">
+        <v>166</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E56" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1971,33 +1969,33 @@
       <c r="A57" t="s">
         <v>134</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>169</v>
+      <c r="C57" t="s">
+        <v>166</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E57" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>135</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E58" s="5" t="s">
+      <c r="C58" t="s">
+        <v>166</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E58" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2005,33 +2003,33 @@
       <c r="A59" t="s">
         <v>136</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>166</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E59" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E60" s="5" t="s">
+      <c r="C60" t="s">
+        <v>166</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E60" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2039,16 +2037,16 @@
       <c r="A61" t="s">
         <v>138</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E61" s="5" t="s">
+      <c r="C61" t="s">
+        <v>166</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E61" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2056,16 +2054,16 @@
       <c r="A62" t="s">
         <v>139</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" t="s">
         <v>59</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E62" s="5" t="s">
+      <c r="C62" t="s">
+        <v>166</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E62" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2073,16 +2071,16 @@
       <c r="A63" t="s">
         <v>140</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E63" s="5" t="s">
+      <c r="C63" t="s">
+        <v>166</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E63" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2090,33 +2088,33 @@
       <c r="A64" t="s">
         <v>141</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>166</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E64" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" t="s">
         <v>62</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E65" s="5" t="s">
+      <c r="C65" t="s">
+        <v>166</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E65" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2124,51 +2122,50 @@
       <c r="A66" t="s">
         <v>143</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" t="s">
         <v>63</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
+      <c r="C66" t="s">
+        <v>166</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E66" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C67" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="E67" s="14" t="s">
+      <c r="C67" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E67" s="7" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="5"/>
+      <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>148</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" t="s">
         <v>65</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2176,10 +2173,10 @@
       <c r="A70" t="s">
         <v>149</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" t="s">
         <v>66</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2187,10 +2184,10 @@
       <c r="A71" t="s">
         <v>150</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" t="s">
         <v>67</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2198,10 +2195,10 @@
       <c r="A72" t="s">
         <v>151</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" t="s">
         <v>68</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2209,10 +2206,10 @@
       <c r="A73" t="s">
         <v>152</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" t="s">
         <v>69</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2220,10 +2217,10 @@
       <c r="A74" t="s">
         <v>153</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" t="s">
         <v>70</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2231,10 +2228,10 @@
       <c r="A75" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" t="s">
         <v>71</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2242,10 +2239,10 @@
       <c r="A76" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" t="s">
         <v>72</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2253,10 +2250,10 @@
       <c r="A77" t="s">
         <v>154</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" t="s">
         <v>73</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2264,10 +2261,10 @@
       <c r="A78" t="s">
         <v>155</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" t="s">
         <v>74</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2275,10 +2272,10 @@
       <c r="A79" t="s">
         <v>158</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" t="s">
         <v>75</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2286,10 +2283,10 @@
       <c r="A80" t="s">
         <v>159</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" t="s">
         <v>76</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2297,10 +2294,10 @@
       <c r="A81" t="s">
         <v>156</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" t="s">
         <v>77</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2308,10 +2305,10 @@
       <c r="A82" t="s">
         <v>157</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" t="s">
         <v>78</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2319,10 +2316,10 @@
       <c r="A83" t="s">
         <v>160</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" t="s">
         <v>79</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2330,10 +2327,10 @@
       <c r="A84" t="s">
         <v>161</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" t="s">
         <v>80</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" t="s">
         <v>166</v>
       </c>
     </row>
